--- a/Tarea 1/Algoritmos de Multiplicacion de Matrices/Resultados/ComparacionAlgoritmosMultiplicacionDeMatrices.xlsx
+++ b/Tarea 1/Algoritmos de Multiplicacion de Matrices/Resultados/ComparacionAlgoritmosMultiplicacionDeMatrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gomez\OneDrive\Documentos\0GitHub\Tareas_Algoco_GitHub\Tarea 1\Algoritmos de Multiplicacion de Matrices\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF9AD67-3A4F-496F-BE92-C12FC7105348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07326C70-F258-43D1-8602-FEC03386C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{642E863F-7CC5-4FA9-826F-0EE1570185CD}"/>
   </bookViews>
@@ -588,13 +588,13 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89D8878-CBFC-4348-93AF-108A275B7A5F}">
   <dimension ref="A1:AF117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,51 +944,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="V1" s="12" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="V1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AB1" s="12" t="s">
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AB1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1066,10 +1066,10 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="13"/>
       <c r="D3" s="10">
         <f>AVERAGE(D17:D19)</f>
         <v>3.5333333333333332E-3</v>
@@ -1129,7 +1129,7 @@
         <f>AVERAGE(I82:I84)</f>
         <v>6.633333333333334E-3</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="8">
         <f>AVERAGE(N82:N84)</f>
         <v>0.16046666666666665</v>
       </c>
@@ -1219,7 +1219,7 @@
         <f>AVERAGE(I85:I87)</f>
         <v>4.2699999999999995E-2</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="8">
         <f>AVERAGE(N85:N87)</f>
         <v>25.332233333333335</v>
       </c>
@@ -1309,7 +1309,7 @@
         <f>AVERAGE(I88:I90)</f>
         <v>0.3014</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="8">
         <f>AVERAGE(N88:N90)</f>
         <v>238.7703333333333</v>
       </c>
@@ -1399,9 +1399,9 @@
         <f>AVERAGE(I91:I93)</f>
         <v>2.2971666666666666</v>
       </c>
-      <c r="X6" s="2">
-        <f t="shared" ref="X6" si="0">AVERAGE(N85:N87)</f>
-        <v>25.332233333333335</v>
+      <c r="X6" s="8">
+        <f>AVERAGE(N91:N93)</f>
+        <v>730.33933333333334</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>132</v>
@@ -1489,7 +1489,7 @@
         <f>AVERAGE(I94:I96)</f>
         <v>10.614899999999999</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="8">
         <f>AVERAGE(N94:N96)</f>
         <v>7650.0066666666671</v>
       </c>
@@ -1579,7 +1579,7 @@
         <f>AVERAGE(I97:I99)</f>
         <v>16.626466666666666</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="8">
         <f>AVERAGE(N97:N99)</f>
         <v>3061.7066666666669</v>
       </c>
@@ -1668,7 +1668,7 @@
         <f>AVERAGE(I100:I102)</f>
         <v>183.85866666666666</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="8">
         <f>AVERAGE(N100:N102)</f>
         <v>64911.733333333337</v>
       </c>
@@ -1756,7 +1756,7 @@
         <f>AVERAGE(I103:I105)</f>
         <v>252.53699999999995</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="8">
         <f>AVERAGE(N103:N105)</f>
         <v>365993.33333333331</v>
       </c>
@@ -1812,7 +1812,7 @@
         <f>AVERAGE(I106:I108)</f>
         <v>389.03833333333336</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="8">
         <f>AVERAGE(N106:N108)</f>
         <v>31844.566666666666</v>
       </c>
@@ -1914,30 +1914,30 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="H15" s="13" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="M15" s="13" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="M15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="R15" s="13" t="s">
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="R15" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
@@ -7041,21 +7041,22 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:K15"/>
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="R15:U15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:K15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D3 F3" formulaRange="1"/>
   </ignoredErrors>
